--- a/sample reference.xlsx
+++ b/sample reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\EBAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C3DA5C-9230-4E94-87AD-D78C41F9AD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1154B3A-7737-4BD5-9DA0-EDAFF6319D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B503493-5907-41D8-BCFE-176F4923F67D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Game Name</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>User Score</t>
+  </si>
+  <si>
+    <t>Game Series</t>
   </si>
 </sst>
 </file>
@@ -134,11 +137,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,91 +456,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1616DBF-C489-4D77-A163-95CBF3F078E4}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,10 +568,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
